--- a/results/A-09.xlsx
+++ b/results/A-09.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-9408.645360852859</v>
+        <v>-9424.810314801476</v>
       </c>
       <c r="C2">
-        <v>13594.02038409393</v>
+        <v>13561.10628077167</v>
       </c>
       <c r="D2">
-        <v>-3568.604222318788</v>
+        <v>-3520.258773335945</v>
       </c>
       <c r="E2">
-        <v>-616.7708009221996</v>
+        <v>-616.0371926342616</v>
       </c>
       <c r="F2">
-        <v>56.11058059929076</v>
+        <v>55.96194096571918</v>
       </c>
       <c r="G2">
-        <v>40.83685836799037</v>
+        <v>40.92402927951355</v>
       </c>
       <c r="H2">
-        <v>56.39562259821173</v>
+        <v>56.24114139409272</v>
       </c>
       <c r="I2">
-        <v>45.36155323865381</v>
+        <v>45.42231789697769</v>
       </c>
       <c r="J2">
-        <v>56.11058060030621</v>
+        <v>55.96194096582354</v>
       </c>
       <c r="K2">
-        <v>50.31741193894567</v>
+        <v>50.34513396833665</v>
       </c>
       <c r="L2">
-        <v>53.44092194407551</v>
+        <v>53.46401473543068</v>
       </c>
       <c r="M2">
         <v>40</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>45.57997087986581</v>
+        <v>45.62699102746905</v>
       </c>
       <c r="P2">
-        <v>55.09800603188398</v>
+        <v>55.02894110476564</v>
       </c>
       <c r="Q2">
         <v>50</v>
       </c>
       <c r="R2">
-        <v>8.800030366226681</v>
+        <v>8.953380639800754</v>
       </c>
       <c r="S2">
-        <v>-17.60006076390322</v>
+        <v>-17.90676128295929</v>
       </c>
       <c r="T2">
-        <v>8.80003039767654</v>
+        <v>8.953380643158548</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-90.20640322799842</v>
+        <v>-92.33646748703023</v>
       </c>
       <c r="Y2">
-        <v>-144.5430218416236</v>
+        <v>-142.3360080380841</v>
       </c>
       <c r="Z2">
-        <v>-90.20640322799838</v>
+        <v>-92.33646748703015</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-8.800030366226681</v>
+        <v>-8.953380639800754</v>
       </c>
       <c r="AF2">
-        <v>8.80003039767654</v>
+        <v>8.953380643158548</v>
       </c>
       <c r="AG2">
-        <v>8.800030366226681</v>
+        <v>8.953380639800754</v>
       </c>
       <c r="AH2">
-        <v>-17.60006076390322</v>
+        <v>-17.90676128295929</v>
       </c>
       <c r="AI2">
-        <v>8.80003039767654</v>
+        <v>8.953380643158548</v>
       </c>
       <c r="AJ2">
-        <v>8.800030366226681</v>
+        <v>8.953380639800754</v>
       </c>
       <c r="AK2">
-        <v>-8.80003039767654</v>
+        <v>-8.953380643158548</v>
       </c>
       <c r="AL2">
-        <v>27.16830930681258</v>
+        <v>24.99977027552693</v>
       </c>
       <c r="AM2">
-        <v>-27.16830930681257</v>
+        <v>-24.99977027552692</v>
       </c>
       <c r="AN2">
-        <v>-90.20640322799842</v>
+        <v>-92.33646748703023</v>
       </c>
       <c r="AO2">
-        <v>-144.5430218416236</v>
+        <v>-142.3360080380841</v>
       </c>
       <c r="AP2">
-        <v>-90.20640322799838</v>
+        <v>-92.33646748703015</v>
       </c>
       <c r="AQ2">
-        <v>-27.16830930681258</v>
+        <v>-24.99977027552693</v>
       </c>
       <c r="AR2">
-        <v>27.16830930681257</v>
+        <v>24.99977027552692</v>
       </c>
       <c r="AS2">
-        <v>56.11058059929076</v>
+        <v>55.96194096571918</v>
       </c>
       <c r="AT2">
-        <v>56.11058059929076</v>
+        <v>55.96194096571918</v>
       </c>
       <c r="AU2">
-        <v>56.39562259821167</v>
+        <v>56.24114139409255</v>
       </c>
       <c r="AV2">
-        <v>56.39562259821167</v>
+        <v>56.24114139409255</v>
       </c>
       <c r="AW2">
-        <v>56.39562259821173</v>
+        <v>56.24114139409272</v>
       </c>
       <c r="AX2">
-        <v>56.11058060030621</v>
+        <v>55.96194096582354</v>
       </c>
       <c r="AY2">
-        <v>56.11058060030621</v>
+        <v>55.96194096582354</v>
       </c>
       <c r="AZ2">
-        <v>40.83685836799037</v>
+        <v>40.92402927951355</v>
       </c>
       <c r="BA2">
-        <v>40.83685836799037</v>
+        <v>40.92402927951355</v>
       </c>
       <c r="BB2">
-        <v>45.36155323865381</v>
+        <v>45.42231789697769</v>
       </c>
       <c r="BC2">
-        <v>40.65171138117591</v>
+        <v>40.74149327093306</v>
       </c>
       <c r="BD2">
-        <v>50.07139507929963</v>
+        <v>50.10314252126648</v>
       </c>
       <c r="BE2">
-        <v>50.31741193894567</v>
+        <v>50.34513396833665</v>
       </c>
       <c r="BF2">
-        <v>50.31741193894572</v>
+        <v>50.34513396833665</v>
       </c>
       <c r="BG2">
-        <v>53.44092194407551</v>
+        <v>53.46401473543068</v>
       </c>
       <c r="BH2">
         <v>40</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>45.57997087986581</v>
+        <v>45.62699102746905</v>
       </c>
       <c r="BK2">
-        <v>55.09800603188398</v>
+        <v>55.02894110476564</v>
       </c>
       <c r="BL2">
         <v>50</v>
